--- a/docs/log.xlsx
+++ b/docs/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Oruganti/Library/CloudStorage/GoogleDrive-finmetrics0@gmail.com/My Drive/Developer/trading/cnn_rl/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833FDC4E-BF14-AA4D-86CA-B33B0242492F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F002B6E-C9F4-1B4E-99F4-E40DC54BD0C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{C2F97DE5-1084-5B43-9261-62B2B42C79E1}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Gasf images:</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24 x 24</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4 x 24</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>(OHLCV)</t>
   </si>
   <si>
-    <t>24 x 24</t>
-  </si>
-  <si>
     <t>5 x 24</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>OHLCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 x 24 x 24</t>
+  </si>
+  <si>
+    <t>1 x 24 x 24</t>
   </si>
 </sst>
 </file>
@@ -122,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,13 +208,16 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88CA60-E39F-CD40-8E89-92D5BBF1C809}">
   <dimension ref="C3:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,31 +559,31 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
@@ -582,13 +591,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
@@ -596,13 +605,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
@@ -611,32 +620,32 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.2">
@@ -685,7 +694,7 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -698,16 +707,16 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
